--- a/artfynd/A 13482-2022.xlsx
+++ b/artfynd/A 13482-2022.xlsx
@@ -909,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>102897610</v>
+        <v>104025305</v>
       </c>
       <c r="B4" t="n">
         <v>78569</v>
@@ -955,7 +955,7 @@
         <v>7014580.868049007</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -979,22 +979,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-08-15</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-08-15</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1008,21 +1008,25 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Linda Johannesson</t>
+          <t>Johan Staaf</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Linda Johannesson</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Via Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>LstZ inventering av skogliga värdetrakter 2022</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1255,7 +1259,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>102897616</v>
+        <v>104025268</v>
       </c>
       <c r="B7" t="n">
         <v>77259</v>
@@ -1301,7 +1305,7 @@
         <v>7014616.368675571</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1325,22 +1329,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-08-15</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-08-15</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1355,15 +1359,19 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Linda Johannesson</t>
+          <t>Johan Staaf</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Linda Johannesson</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Via Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>LstZ inventering av skogliga värdetrakter 2022</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
